--- a/salterGraph.xlsx
+++ b/salterGraph.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugoescobar/Documents/GitHub/Stats/StatsProb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73EDEBCF-7CC4-134B-955B-80E0629BB866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A27778-273A-AE46-9142-EDFDFCC89490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15300"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="salterData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">salterData!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">salterData!$A$2:$A$1002</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">salterData!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">salterData!$B$2:$B$1002</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">salterData!$A$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">salterData!$A$2:$A$1002</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">salterData!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">salterData!$B$2:$B$1002</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -41,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -7547,14 +7537,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7878,10 +7868,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B262" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
     </sheetView>
   </sheetViews>
